--- a/02_Proyecto/13. RUBRICA/Cuadernos/06_Resumen_Plan_Proyecto.xlsx
+++ b/02_Proyecto/13. RUBRICA/Cuadernos/06_Resumen_Plan_Proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kevin\2025_Septimo\Aseguramiento calidad - 2563\GIT\2563_G5_ACSW\02_Proyecto\07.InformeGeneral\Cuadernos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kevin\2025_Septimo\Aseguramiento calidad - 2563\GIT\2563_G5_ACSW\02_Proyecto\13. RUBRICA\Cuadernos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA688FD-32BB-41EA-9F95-EF7289033E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D156C440-D8C6-410E-8C23-68B445EADE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="6" xr2:uid="{4A5921DE-74FD-453F-A450-9A213226377B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{4A5921DE-74FD-453F-A450-9A213226377B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 6,1" sheetId="15" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="Defectos Desarrollo 1" sheetId="3" r:id="rId5"/>
     <sheet name="Defectos Desarrollo 1_2" sheetId="14" r:id="rId6"/>
     <sheet name="Resumen Semanal" sheetId="16" r:id="rId7"/>
+    <sheet name="Estimación semanal" sheetId="17" r:id="rId8"/>
+    <sheet name="CuadernoTrabajo" sheetId="18" r:id="rId9"/>
+    <sheet name="CRT" sheetId="19" r:id="rId10"/>
+    <sheet name="Diccionario de Actividades" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="404">
   <si>
     <t xml:space="preserve">Numero de Programas </t>
   </si>
@@ -932,6 +936,535 @@
   <si>
     <t>Tiempo mínimo</t>
   </si>
+  <si>
+    <t>El diseño de las alertas de confirmación no sigue la guía de estilo del proyecto.</t>
+  </si>
+  <si>
+    <t>Descripción:</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Codificaion</t>
+  </si>
+  <si>
+    <t>Defecto Corregido</t>
+  </si>
+  <si>
+    <t>T. Corrección</t>
+  </si>
+  <si>
+    <t>Eliminado</t>
+  </si>
+  <si>
+    <t>Introducido</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>La paginación en la vista Index.cshtml no actualiza los datos dinámicamente.</t>
+  </si>
+  <si>
+    <t>Codificacion</t>
+  </si>
+  <si>
+    <t>El formulario de filtrado en la tabla de proveedores no mantiene los valores seleccionados tras la búsqueda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los mensajes de éxito y error en los formularios de proveedores no se muestran correctamente.</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>El controlador ProveedorController.cs no maneja correctamente las excepciones al realizar búsquedas.</t>
+  </si>
+  <si>
+    <t>La tabla de proveedores en Index.cshtml no realiza el paginado correctamente.</t>
+  </si>
+  <si>
+    <t>El diseño responsive del módulo de proveedores no se adapta a dispositivos móviles</t>
+  </si>
+  <si>
+    <t>El redireccionamiento a la vista de detalles falla tras editar un proveedor.</t>
+  </si>
+  <si>
+    <t>La interfaz de búsqueda y filtros de proveedores no aplica correctamente los parámetros.</t>
+  </si>
+  <si>
+    <t>El menú lateral de navegación no muestra correctamente el módulo de proveedores.</t>
+  </si>
+  <si>
+    <t>La sesión de usuario no se cierra correctamente debido a la ausencia de un token de cierre.</t>
+  </si>
+  <si>
+    <t>Los archivos CSS y JS del formulario de proveedores no se cargan correctamente.</t>
+  </si>
+  <si>
+    <t>Error en el path general del proyecto que afecta la carga de imágenes de proveedores.</t>
+  </si>
+  <si>
+    <t>El formulario de eliminación no solicita confirmación antes de borrar un proveedor.</t>
+  </si>
+  <si>
+    <t>La imagen del proveedor no se muestra correctamente en la vista de detalles Details.cshtml</t>
+  </si>
+  <si>
+    <t>No se validan los campos obligatorios en los formularios de creación y edición.</t>
+  </si>
+  <si>
+    <t>El botón de cierre de sesión en el header desaparece después de realizar una operación CRUD.</t>
+  </si>
+  <si>
+    <t>El dashboard administrativo no muestra correctamente las métricas de proveedores.</t>
+  </si>
+  <si>
+    <t>Mala distribución de los componentes gráficos en la vista Index.cshtml de proveedores.</t>
+  </si>
+  <si>
+    <t>El control de acceso en ProveedorController.cs permite acciones sin la validación de roles.</t>
+  </si>
+  <si>
+    <t>El formulario de edición de proveedores en Edit.cshtml muestra datos incorrectos.</t>
+  </si>
+  <si>
+    <t>El formulario de creación de proveedores en Create.cshtml no realiza el submit correctamente.</t>
+  </si>
+  <si>
+    <t>Tipos de datos no compatibles en las propiedades del modelo Proveedor.cs.</t>
+  </si>
+  <si>
+    <t>Las relaciones en la base de datos del proveedor no son correctas; se deben agregar llaves foráneas.</t>
+  </si>
+  <si>
+    <t>El modelo Proveedor.cs no cuenta con una nomenclatura adecuada en los atributos y relaciones.</t>
+  </si>
+  <si>
+    <t>T. Corrección (minutos)</t>
+  </si>
+  <si>
+    <t>Función</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Construcción Paquetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL EN MINUTOS: </t>
+  </si>
+  <si>
+    <t>Entorno</t>
+  </si>
+  <si>
+    <t>Comprobación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Tipos de defectos</t>
+  </si>
+  <si>
+    <t>Manual de Usuario y Guía Técnica</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Validación Final del Sistema (modulo proveedores)</t>
+  </si>
+  <si>
+    <t>Pruebas Autenticación y Autorización</t>
+  </si>
+  <si>
+    <t>Pruebas de Auditoría</t>
+  </si>
+  <si>
+    <t>Auditoría de Cambios</t>
+  </si>
+  <si>
+    <t>Pruebas de Configuración</t>
+  </si>
+  <si>
+    <t>Pruebas de Reportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024	</t>
+  </si>
+  <si>
+    <t>Dashboard Administrativo</t>
+  </si>
+  <si>
+    <t>Pruebas CRUD de Proveedores</t>
+  </si>
+  <si>
+    <t>Configuración del proyecto ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>Configuracion</t>
+  </si>
+  <si>
+    <t>Diagramación de la base de datos para proveedores</t>
+  </si>
+  <si>
+    <t>Diagramacion</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>Grupo5</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>CUADERNO DE TRABAJO  Nª</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Revisión final antes de la entrega</t>
+  </si>
+  <si>
+    <t>Pruebas Finales</t>
+  </si>
+  <si>
+    <t>Manual de usuario y guía técnica</t>
+  </si>
+  <si>
+    <t>Tarea 3: Documentación del Proyecto</t>
+  </si>
+  <si>
+    <t>Validación general de todas las funciones</t>
+  </si>
+  <si>
+    <t>Requisito 12: Pruebas de Funcionamiento</t>
+  </si>
+  <si>
+    <t>Pruebas de acceso según rol</t>
+  </si>
+  <si>
+    <t>Pruebas: Autenticación y Autorización</t>
+  </si>
+  <si>
+    <t>Implementación de login y roles</t>
+  </si>
+  <si>
+    <t>Requisito 11: Autenticación y Autorización</t>
+  </si>
+  <si>
+    <t>Validación de registros de auditoría</t>
+  </si>
+  <si>
+    <t>Pruebas: Auditoría de Cambios</t>
+  </si>
+  <si>
+    <t>Registro de modificaciones realizadas</t>
+  </si>
+  <si>
+    <t>Requisito 10: Auditoría de Cambios</t>
+  </si>
+  <si>
+    <t>Validación de parámetros configurables</t>
+  </si>
+  <si>
+    <t>Pruebas: Configuración del Sistema</t>
+  </si>
+  <si>
+    <t>Panel de ajustes generales</t>
+  </si>
+  <si>
+    <t>Requisito 9: Configuración del Sistema</t>
+  </si>
+  <si>
+    <t>Restricciones según rol del usuario</t>
+  </si>
+  <si>
+    <t>Requisito 8: Control de Acceso</t>
+  </si>
+  <si>
+    <t>Cifrado de contraseñas y validación</t>
+  </si>
+  <si>
+    <t>Requisito 7: Seguridad de Datos</t>
+  </si>
+  <si>
+    <t>Verificación del formato y datos</t>
+  </si>
+  <si>
+    <t>Pruebas: Generación de Reportes</t>
+  </si>
+  <si>
+    <t>Exportación de datos a PDF y Excel</t>
+  </si>
+  <si>
+    <t>Requisito 6: Generación de Reportes</t>
+  </si>
+  <si>
+    <t>Panel con estadísticas clave</t>
+  </si>
+  <si>
+    <t>Requisito 5: Dashboard Administrativo</t>
+  </si>
+  <si>
+    <t>Alertas automáticas según el estado</t>
+  </si>
+  <si>
+    <t>Requisito 4: Notificaciones y Alertas</t>
+  </si>
+  <si>
+    <t>Implementación de filtros avanzados</t>
+  </si>
+  <si>
+    <t>Requisito 3: Búsqueda y Filtros</t>
+  </si>
+  <si>
+    <t>Registro de cambios en la BD</t>
+  </si>
+  <si>
+    <t>Requisito 2: Historial de Proveedores</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias y de integración</t>
+  </si>
+  <si>
+    <t>Pruebas: CRUD de Proveedores</t>
+  </si>
+  <si>
+    <t>Desarrollo de interfaz y controlador</t>
+  </si>
+  <si>
+    <t>Requisito 1: CRUD de Proveedores</t>
+  </si>
+  <si>
+    <t>Creación del proyecto en Visual Studio</t>
+  </si>
+  <si>
+    <t>Tarea 2: Configuración del proyecto MVC</t>
+  </si>
+  <si>
+    <t>Modelado de tablas para proveedores</t>
+  </si>
+  <si>
+    <t>Tarea 1: Diagramación de la base de datos</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Inc. Tiempo</t>
+  </si>
+  <si>
+    <t>T.Interrup.</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Comienzo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>2563</t>
+    </r>
+  </si>
+  <si>
+    <t>Ing. Jenny Ruíz</t>
+  </si>
+  <si>
+    <t>Profesor:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fecha: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>05/02/2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Sebastian Monga
+Kevin Guzmán 
+Nicole Lara</t>
+  </si>
+  <si>
+    <t>Integrantes:</t>
+  </si>
+  <si>
+    <t>CUADERNO DE REGISTRO DE TIEMPOS Nª</t>
+  </si>
+  <si>
+    <t>Validación integral de todas las funcionalidades antes de la entrega final.</t>
+  </si>
+  <si>
+    <t>Requisito 12</t>
+  </si>
+  <si>
+    <t>Autenticación y autorización de usuarios mediante login seguro y roles diferenciados.</t>
+  </si>
+  <si>
+    <t>Requisito 11</t>
+  </si>
+  <si>
+    <t>Auditoría de cambios: registro de las modificaciones realizadas en la base de datos.</t>
+  </si>
+  <si>
+    <t>Requisito 10</t>
+  </si>
+  <si>
+    <t>Panel de configuración para ajustar parámetros generales del sistema.</t>
+  </si>
+  <si>
+    <t>Requisito 9</t>
+  </si>
+  <si>
+    <t>Control de acceso restringido según los roles de administrador y proveedor.</t>
+  </si>
+  <si>
+    <t>Requisito 8</t>
+  </si>
+  <si>
+    <t>Implementación de seguridad de datos mediante cifrado de contraseñas y validación de acceso.</t>
+  </si>
+  <si>
+    <t>Requisito 7</t>
+  </si>
+  <si>
+    <t>Permitirá generar reportes de proveedores exportables en formato PDF y Excel.</t>
+  </si>
+  <si>
+    <t>Requisito 6</t>
+  </si>
+  <si>
+    <t>El sistema incluirá un dashboard administrativo con métricas y estadísticas clave.</t>
+  </si>
+  <si>
+    <t>Requisito 5</t>
+  </si>
+  <si>
+    <t>Se enviarán alertas automáticas de proveedores inactivos o pendientes de actualización.</t>
+  </si>
+  <si>
+    <t>Requisito 4</t>
+  </si>
+  <si>
+    <t>El sistema contará con búsqueda avanzada y filtros por nombre, categoría y estado de proveedores.</t>
+  </si>
+  <si>
+    <t>Requisito 3</t>
+  </si>
+  <si>
+    <t>Se registrará un historial de cambios realizados en la información de los proveedores.</t>
+  </si>
+  <si>
+    <t>Requisito 2</t>
+  </si>
+  <si>
+    <t>El sistema permitirá realizar el CRUD (Crear, Leer, Actualizar, Eliminar) de proveedores.</t>
+  </si>
+  <si>
+    <t>Requisito 1</t>
+  </si>
+  <si>
+    <t>Documentación del proyecto: manual de usuario y guía técnica.</t>
+  </si>
+  <si>
+    <t>Tarea 3</t>
+  </si>
+  <si>
+    <t>Configuración del proyecto ASP.NET MVC en Visual Studio.</t>
+  </si>
+  <si>
+    <t>Tarea 2</t>
+  </si>
+  <si>
+    <t>Diagramación de la base de datos para la gestión de proveedores.</t>
+  </si>
+  <si>
+    <t>Tarea 1</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Diccionario de Actividades</t>
+  </si>
 </sst>
 </file>
 
@@ -941,7 +1474,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1537,128 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,8 +1701,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1215,12 +1892,621 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,10 +2766,397 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="10" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4BC74DD3-E0CE-48DB-9A4A-935C998B22DF}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{31192720-5A4F-4144-8E42-DF79311572AC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2293,6 +3966,1155 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939C8F3-5922-4301-A7CF-47547CC55397}">
+  <dimension ref="B2:J43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="205" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="205" customWidth="1"/>
+    <col min="3" max="4" width="9.21875" style="205" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="205" customWidth="1"/>
+    <col min="6" max="7" width="9.21875" style="205" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" style="205" customWidth="1"/>
+    <col min="9" max="10" width="3.77734375" style="205" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="205"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="14.4" thickBot="1">
+      <c r="B2" s="205" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B3" s="231" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="227" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="226"/>
+      <c r="J3" s="225"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.4" thickBot="1">
+      <c r="B4" s="224" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="223" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="221" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="220"/>
+      <c r="J4" s="219"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.4" thickBot="1"/>
+    <row r="6" spans="2:10" s="207" customFormat="1" ht="12.6" thickBot="1">
+      <c r="B6" s="218" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="217" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="217" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="217" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="217" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="217" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="217" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="217" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="216" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="43.2">
+      <c r="B7" s="214">
+        <v>45628</v>
+      </c>
+      <c r="C7" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7" s="213">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F7" s="215">
+        <f>(D7-C7)*24 -E7</f>
+        <v>1.9930555555555551</v>
+      </c>
+      <c r="G7" s="212" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="212" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="54">
+      <c r="B8" s="214">
+        <v>45628</v>
+      </c>
+      <c r="C8" s="213">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="213">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8" s="213">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F8" s="212">
+        <f>(D8-C8)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G8" s="212" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="212" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="32.4">
+      <c r="B9" s="214">
+        <v>45629</v>
+      </c>
+      <c r="C9" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9" s="213">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="212">
+        <f>(D9-C9)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G9" s="212" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="212" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J9" s="212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="32.4">
+      <c r="B10" s="214">
+        <v>45629</v>
+      </c>
+      <c r="C10" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D10" s="213">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="213">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F10" s="212">
+        <f>(D10-C10)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G10" s="212" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="212" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J10" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="32.4">
+      <c r="B11" s="214">
+        <v>45630</v>
+      </c>
+      <c r="C11" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="213">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="213">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F11" s="212">
+        <f>(D11-C11)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G11" s="212" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="212" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="32.4">
+      <c r="B12" s="214">
+        <v>45630</v>
+      </c>
+      <c r="C12" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="213">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F12" s="212">
+        <f>(D12-C12)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G12" s="212" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="212" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="32.4">
+      <c r="B13" s="214">
+        <v>45631</v>
+      </c>
+      <c r="C13" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="213">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13" s="213">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F13" s="212">
+        <f>(D13-C13)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G13" s="212" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" s="212" t="s">
+        <v>342</v>
+      </c>
+      <c r="I13" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J13" s="212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="43.2">
+      <c r="B14" s="214">
+        <v>45631</v>
+      </c>
+      <c r="C14" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="213">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="213">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F14" s="212">
+        <f>(D14-C14)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G14" s="212" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="212" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="32.4">
+      <c r="B15" s="214">
+        <v>45632</v>
+      </c>
+      <c r="C15" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="213">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F15" s="212">
+        <f>(D15-C15)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G15" s="212" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="212" t="s">
+        <v>338</v>
+      </c>
+      <c r="I15" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J15" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="32.4">
+      <c r="B16" s="214">
+        <v>45632</v>
+      </c>
+      <c r="C16" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="213">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="213">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F16" s="212">
+        <f>(D16-C16)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G16" s="212" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="212" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="32.4">
+      <c r="B17" s="214">
+        <v>45633</v>
+      </c>
+      <c r="C17" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="213">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="213">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F17" s="212">
+        <f>(D17-C17)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G17" s="212" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="212" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="32.4">
+      <c r="B18" s="214">
+        <v>45633</v>
+      </c>
+      <c r="C18" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D18" s="213">
+        <v>0.625</v>
+      </c>
+      <c r="E18" s="213">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F18" s="212">
+        <f>(D18-C18)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G18" s="212" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="212" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="43.2">
+      <c r="B19" s="214">
+        <v>45635</v>
+      </c>
+      <c r="C19" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="213">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E19" s="213">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F19" s="212">
+        <f>(D19-C19)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G19" s="212" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="212" t="s">
+        <v>330</v>
+      </c>
+      <c r="I19" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="43.2">
+      <c r="B20" s="214">
+        <v>45635</v>
+      </c>
+      <c r="C20" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E20" s="213">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F20" s="212">
+        <f>(D20-C20)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G20" s="212" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" s="212" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="32.4">
+      <c r="B21" s="214">
+        <v>45636</v>
+      </c>
+      <c r="C21" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E21" s="213">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F21" s="212">
+        <f>(D21-C21)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G21" s="212" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" s="212" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J21" s="212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="32.4">
+      <c r="B22" s="214">
+        <v>45636</v>
+      </c>
+      <c r="C22" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D22" s="213">
+        <v>0.625</v>
+      </c>
+      <c r="E22" s="213">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F22" s="212">
+        <f>(D22-C22)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G22" s="212" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="212" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J22" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="54">
+      <c r="B23" s="214">
+        <v>45637</v>
+      </c>
+      <c r="C23" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="213">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="E23" s="213">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F23" s="215">
+        <f>(D23-C23)*24</f>
+        <v>1.0333333333333337</v>
+      </c>
+      <c r="G23" s="212" t="s">
+        <v>323</v>
+      </c>
+      <c r="H23" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="54">
+      <c r="B24" s="214">
+        <v>45637</v>
+      </c>
+      <c r="C24" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="213">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="213">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F24" s="212">
+        <f>(D24-C24)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G24" s="212" t="s">
+        <v>321</v>
+      </c>
+      <c r="H24" s="212" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J24" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="43.2">
+      <c r="B25" s="214">
+        <v>45638</v>
+      </c>
+      <c r="C25" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D25" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E25" s="213">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="F25" s="212">
+        <f>(D25-C25)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G25" s="212" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="212" t="s">
+        <v>318</v>
+      </c>
+      <c r="I25" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J25" s="212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="43.2">
+      <c r="B26" s="214">
+        <v>45638</v>
+      </c>
+      <c r="C26" s="213">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D26" s="213">
+        <v>0.625</v>
+      </c>
+      <c r="E26" s="213">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F26" s="212">
+        <f>(D26-C26)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G26" s="212" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" s="212" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J26" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="21.6">
+      <c r="B27" s="214">
+        <v>45639</v>
+      </c>
+      <c r="C27" s="213">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="213">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E27" s="213">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F27" s="212">
+        <f>(D27-C27)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G27" s="212" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" s="212" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" s="212" t="s">
+        <v>313</v>
+      </c>
+      <c r="J27" s="212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="211" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="208"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="210">
+        <f>SUM(F7:F27)</f>
+        <v>35.026388888888896</v>
+      </c>
+      <c r="G28" s="206" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="206"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="206"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="137"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="208"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="209">
+        <f>F28*60</f>
+        <v>2101.5833333333339</v>
+      </c>
+      <c r="G29" s="206" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" s="206"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="206"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="137"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="206"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="137"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="206"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="137"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="206"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="137"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="206"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="137"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="206"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="137"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="206"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="137"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="206"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="137"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="206"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="137"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="206"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="137"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="206"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="137"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="206"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="137"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="206"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="137"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="206"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="137"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="207"/>
+      <c r="J43" s="206"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F738B6-958F-4D9A-8482-DD523099092A}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="232"/>
+    <col min="2" max="2" width="21" style="232" customWidth="1"/>
+    <col min="3" max="3" width="131.21875" style="232" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="232"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="233"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.2">
+      <c r="A2" s="233"/>
+      <c r="B2" s="254" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="254"/>
+      <c r="D2" s="233"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" thickBot="1">
+      <c r="A3" s="233"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="233"/>
+    </row>
+    <row r="4" spans="1:4" ht="18">
+      <c r="A4" s="233"/>
+      <c r="B4" s="252" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="251" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="233"/>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="233"/>
+      <c r="B5" s="250" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="249" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="233"/>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="233"/>
+      <c r="B6" s="250" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="249" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="233"/>
+    </row>
+    <row r="7" spans="1:4" ht="74.25" customHeight="1">
+      <c r="A7" s="233"/>
+      <c r="B7" s="250" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="249" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="233"/>
+    </row>
+    <row r="8" spans="1:4" ht="67.5" customHeight="1">
+      <c r="A8" s="233"/>
+      <c r="B8" s="250" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="249" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="233"/>
+    </row>
+    <row r="9" spans="1:4" ht="108" customHeight="1">
+      <c r="A9" s="233"/>
+      <c r="B9" s="250" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="249" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="233"/>
+    </row>
+    <row r="10" spans="1:4" ht="81" customHeight="1">
+      <c r="A10" s="233"/>
+      <c r="B10" s="250" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="249" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="233"/>
+    </row>
+    <row r="11" spans="1:4" ht="91.5" customHeight="1">
+      <c r="A11" s="233"/>
+      <c r="B11" s="250" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="249" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="233"/>
+    </row>
+    <row r="12" spans="1:4" ht="101.25" customHeight="1">
+      <c r="A12" s="233"/>
+      <c r="B12" s="250" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="249" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="233"/>
+    </row>
+    <row r="13" spans="1:4" ht="99" customHeight="1">
+      <c r="A13" s="233"/>
+      <c r="B13" s="250" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="249" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="233"/>
+    </row>
+    <row r="14" spans="1:4" ht="93" customHeight="1">
+      <c r="A14" s="233"/>
+      <c r="B14" s="250" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="249" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="233"/>
+    </row>
+    <row r="15" spans="1:4" ht="112.5" customHeight="1">
+      <c r="A15" s="233"/>
+      <c r="B15" s="250" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="249" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="233"/>
+    </row>
+    <row r="16" spans="1:4" ht="113.25" customHeight="1">
+      <c r="A16" s="233"/>
+      <c r="B16" s="250" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="249" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="233"/>
+    </row>
+    <row r="17" spans="1:7" ht="114" customHeight="1">
+      <c r="A17" s="233"/>
+      <c r="B17" s="250" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="249" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="233"/>
+    </row>
+    <row r="18" spans="1:7" ht="123.75" customHeight="1" thickBot="1">
+      <c r="A18" s="233"/>
+      <c r="B18" s="248" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="247" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="233"/>
+      <c r="G18" s="246"/>
+    </row>
+    <row r="19" spans="1:7" ht="86.25" customHeight="1" thickBot="1">
+      <c r="A19" s="233"/>
+      <c r="B19" s="245" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="244" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="233"/>
+    </row>
+    <row r="20" spans="1:7" ht="120" customHeight="1">
+      <c r="A20" s="233"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="236"/>
+    </row>
+    <row r="21" spans="1:7" ht="129" customHeight="1">
+      <c r="A21" s="241"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="236"/>
+    </row>
+    <row r="22" spans="1:7" ht="131.25" customHeight="1">
+      <c r="A22" s="233"/>
+      <c r="B22" s="238"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="236"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4">
+      <c r="A23" s="233"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="233"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C2E558-125E-455C-96BB-7C6F6B47C988}">
   <dimension ref="A1:G48"/>
@@ -3874,7 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D56471-4063-45CC-AE6A-C1E1A38E30A8}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -6709,7 +9531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD6D85A-ECBF-4724-AA0D-58449E80544B}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7616,4 +10438,4376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51268BEF-0017-40A6-915E-6607882C3F73}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N167"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" style="93" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="93" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="93" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="93" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="93" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="93" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="93" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="93" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="93" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.6">
+      <c r="C1" s="130" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="128"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="C2" s="125">
+        <v>10</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="93">
+        <v>50</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="93">
+        <v>90</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="C3" s="125">
+        <v>20</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="93">
+        <v>60</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="93">
+        <v>100</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="127"/>
+      <c r="L3" s="126">
+        <f>SUM(L14+L21+L28+L35+L42+L49+L56+L62+L68+L74+L80+L86+L92+L98+L104+L110+L116+L122+L128+L134+L140+L146+L152+L158+L164)</f>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="C4" s="125">
+        <v>30</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="93">
+        <v>70</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="124"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="C5" s="123">
+        <v>40</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="122">
+        <v>80</v>
+      </c>
+      <c r="F5" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="122"/>
+      <c r="H5" s="121"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.8" customHeight="1">
+      <c r="B7" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="116"/>
+    </row>
+    <row r="8" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B8" s="119"/>
+      <c r="C8" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+    </row>
+    <row r="9" spans="2:14" ht="14.4">
+      <c r="B9" s="119"/>
+      <c r="C9" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="116">
+        <v>2563</v>
+      </c>
+      <c r="L9" s="116"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.8" customHeight="1" thickBot="1"/>
+    <row r="11" spans="2:14" ht="4.8" customHeight="1">
+      <c r="B11" s="112"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="110"/>
+    </row>
+    <row r="12" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B12" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J12" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="N12" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="102"/>
+      <c r="N13" s="101"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="105">
+        <v>45628</v>
+      </c>
+      <c r="D14" s="104">
+        <v>1</v>
+      </c>
+      <c r="F14" s="104">
+        <v>10</v>
+      </c>
+      <c r="H14" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" s="104">
+        <v>30</v>
+      </c>
+      <c r="N14" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="102"/>
+      <c r="N15" s="101"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="97"/>
+    </row>
+    <row r="17" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B17" s="96"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="94"/>
+    </row>
+    <row r="18" spans="2:14" ht="5.25" customHeight="1">
+      <c r="B18" s="112"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="110"/>
+    </row>
+    <row r="19" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B19" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N19" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="102"/>
+      <c r="N20" s="101"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="105">
+        <v>45628</v>
+      </c>
+      <c r="D21" s="104">
+        <v>2</v>
+      </c>
+      <c r="F21" s="104">
+        <v>10</v>
+      </c>
+      <c r="H21" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" s="104">
+        <v>46</v>
+      </c>
+      <c r="N21" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="102"/>
+      <c r="N22" s="101"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="97"/>
+    </row>
+    <row r="24" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B24" s="96"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="94"/>
+    </row>
+    <row r="25" spans="2:14" ht="5.25" customHeight="1">
+      <c r="B25" s="112"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="110"/>
+    </row>
+    <row r="26" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B26" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N26" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="102"/>
+      <c r="N27" s="101"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="105">
+        <v>45628</v>
+      </c>
+      <c r="D28" s="104">
+        <v>3</v>
+      </c>
+      <c r="F28" s="104">
+        <v>10</v>
+      </c>
+      <c r="H28" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" s="104">
+        <v>15</v>
+      </c>
+      <c r="N28" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="102"/>
+      <c r="N29" s="101"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="97"/>
+    </row>
+    <row r="31" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B31" s="96"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="94"/>
+    </row>
+    <row r="32" spans="2:14" ht="5.25" customHeight="1">
+      <c r="B32" s="112"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="110"/>
+    </row>
+    <row r="33" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B33" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="102"/>
+      <c r="N34" s="101"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="105">
+        <v>45629</v>
+      </c>
+      <c r="D35" s="104">
+        <v>4</v>
+      </c>
+      <c r="F35" s="104">
+        <v>80</v>
+      </c>
+      <c r="H35" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" s="104">
+        <v>32</v>
+      </c>
+      <c r="N35" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="102"/>
+      <c r="N36" s="101"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="97"/>
+    </row>
+    <row r="38" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B38" s="96"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="94"/>
+    </row>
+    <row r="39" spans="2:14" ht="5.25" customHeight="1">
+      <c r="B39" s="112"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="110"/>
+    </row>
+    <row r="40" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B40" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L40" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N40" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="102"/>
+      <c r="N41" s="101"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="105">
+        <v>45629</v>
+      </c>
+      <c r="D42" s="104">
+        <v>5</v>
+      </c>
+      <c r="F42" s="104">
+        <v>80</v>
+      </c>
+      <c r="H42" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L42" s="104">
+        <v>12</v>
+      </c>
+      <c r="N42" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="102"/>
+      <c r="N43" s="101"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="97"/>
+    </row>
+    <row r="45" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B45" s="96"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="94"/>
+    </row>
+    <row r="46" spans="2:14" ht="5.25" customHeight="1">
+      <c r="B46" s="112"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="110"/>
+    </row>
+    <row r="47" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B47" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L47" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N47" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="102"/>
+      <c r="N48" s="101"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="105">
+        <v>45629</v>
+      </c>
+      <c r="D49" s="104">
+        <v>6</v>
+      </c>
+      <c r="F49" s="104">
+        <v>80</v>
+      </c>
+      <c r="H49" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J49" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="L49" s="104">
+        <v>57</v>
+      </c>
+      <c r="N49" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="102"/>
+      <c r="N50" s="101"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="113"/>
+    </row>
+    <row r="52" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B52" s="96"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="94"/>
+    </row>
+    <row r="53" spans="2:14" ht="5.25" customHeight="1">
+      <c r="B53" s="112"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="110"/>
+    </row>
+    <row r="54" spans="2:14" s="107" customFormat="1" ht="10.8">
+      <c r="B54" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F54" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="L54" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N54" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="102"/>
+      <c r="N55" s="101"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="105">
+        <v>45630</v>
+      </c>
+      <c r="D56" s="104">
+        <v>7</v>
+      </c>
+      <c r="F56" s="104">
+        <v>50</v>
+      </c>
+      <c r="H56" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J56" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L56" s="104">
+        <v>32</v>
+      </c>
+      <c r="N56" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="102"/>
+      <c r="N57" s="101"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="97"/>
+    </row>
+    <row r="59" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
+      <c r="B59" s="96"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="94"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="107"/>
+      <c r="D60" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="107"/>
+      <c r="F60" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G60" s="107"/>
+      <c r="H60" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" s="107"/>
+      <c r="J60" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K60" s="107"/>
+      <c r="L60" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M60" s="107"/>
+      <c r="N60" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="102"/>
+      <c r="N61" s="101"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="105">
+        <v>45631</v>
+      </c>
+      <c r="D62" s="104">
+        <v>8</v>
+      </c>
+      <c r="F62" s="104">
+        <v>50</v>
+      </c>
+      <c r="H62" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J62" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="L62" s="104">
+        <v>63</v>
+      </c>
+      <c r="N62" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="102"/>
+      <c r="N63" s="101"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="98"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="97"/>
+    </row>
+    <row r="65" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B65" s="96"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="94"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="107"/>
+      <c r="D66" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="107"/>
+      <c r="F66" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G66" s="107"/>
+      <c r="H66" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I66" s="107"/>
+      <c r="J66" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K66" s="107"/>
+      <c r="L66" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M66" s="107"/>
+      <c r="N66" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="102"/>
+      <c r="N67" s="101"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="105">
+        <v>45631</v>
+      </c>
+      <c r="D68" s="104">
+        <v>9</v>
+      </c>
+      <c r="F68" s="104">
+        <v>90</v>
+      </c>
+      <c r="H68" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J68" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L68" s="104">
+        <v>61</v>
+      </c>
+      <c r="N68" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="102"/>
+      <c r="N69" s="101"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="97"/>
+    </row>
+    <row r="71" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B71" s="96"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="94"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="107"/>
+      <c r="F72" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G72" s="107"/>
+      <c r="H72" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I72" s="107"/>
+      <c r="J72" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K72" s="107"/>
+      <c r="L72" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M72" s="107"/>
+      <c r="N72" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="102"/>
+      <c r="N73" s="101"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="105">
+        <v>45632</v>
+      </c>
+      <c r="D74" s="104">
+        <v>10</v>
+      </c>
+      <c r="F74" s="104">
+        <v>60</v>
+      </c>
+      <c r="H74" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J74" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="L74" s="104">
+        <v>30</v>
+      </c>
+      <c r="N74" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="102"/>
+      <c r="N75" s="101"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="98"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="97"/>
+    </row>
+    <row r="77" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B77" s="96"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="95"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="95"/>
+      <c r="L77" s="95"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="94"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="107"/>
+      <c r="D78" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" s="107"/>
+      <c r="F78" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G78" s="107"/>
+      <c r="H78" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I78" s="107"/>
+      <c r="J78" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K78" s="107"/>
+      <c r="L78" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M78" s="107"/>
+      <c r="N78" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="102"/>
+      <c r="N79" s="101"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="105">
+        <v>45632</v>
+      </c>
+      <c r="D80" s="104">
+        <v>11</v>
+      </c>
+      <c r="F80" s="104">
+        <v>50</v>
+      </c>
+      <c r="H80" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J80" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L80" s="104">
+        <v>20</v>
+      </c>
+      <c r="N80" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="102"/>
+      <c r="N81" s="101"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="98"/>
+      <c r="L82" s="98"/>
+      <c r="M82" s="98"/>
+      <c r="N82" s="97"/>
+    </row>
+    <row r="83" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B83" s="96"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="95"/>
+      <c r="I83" s="95"/>
+      <c r="J83" s="95"/>
+      <c r="K83" s="95"/>
+      <c r="L83" s="95"/>
+      <c r="M83" s="95"/>
+      <c r="N83" s="94"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="107"/>
+      <c r="D84" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="107"/>
+      <c r="F84" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="107"/>
+      <c r="H84" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I84" s="107"/>
+      <c r="J84" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K84" s="107"/>
+      <c r="L84" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M84" s="107"/>
+      <c r="N84" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="102"/>
+      <c r="N85" s="101"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="105">
+        <v>45633</v>
+      </c>
+      <c r="D86" s="104">
+        <v>12</v>
+      </c>
+      <c r="F86" s="104">
+        <v>60</v>
+      </c>
+      <c r="H86" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J86" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L86" s="104">
+        <v>23</v>
+      </c>
+      <c r="N86" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="102"/>
+      <c r="N87" s="101"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="98"/>
+      <c r="N88" s="97"/>
+    </row>
+    <row r="89" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B89" s="96"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
+      <c r="L89" s="95"/>
+      <c r="M89" s="95"/>
+      <c r="N89" s="94"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="107"/>
+      <c r="D90" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E90" s="107"/>
+      <c r="F90" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G90" s="107"/>
+      <c r="H90" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I90" s="107"/>
+      <c r="J90" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K90" s="107"/>
+      <c r="L90" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M90" s="107"/>
+      <c r="N90" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="102"/>
+      <c r="N91" s="101"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="105">
+        <v>45633</v>
+      </c>
+      <c r="D92" s="104">
+        <v>13</v>
+      </c>
+      <c r="F92" s="104">
+        <v>20</v>
+      </c>
+      <c r="H92" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J92" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L92" s="104">
+        <v>45</v>
+      </c>
+      <c r="N92" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="102"/>
+      <c r="N93" s="101"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D94" s="98"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="98"/>
+      <c r="H94" s="98"/>
+      <c r="I94" s="98"/>
+      <c r="J94" s="98"/>
+      <c r="K94" s="98"/>
+      <c r="L94" s="98"/>
+      <c r="M94" s="98"/>
+      <c r="N94" s="97"/>
+    </row>
+    <row r="95" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B95" s="96"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="95"/>
+      <c r="I95" s="95"/>
+      <c r="J95" s="95"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="94"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="107"/>
+      <c r="D96" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" s="107"/>
+      <c r="F96" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" s="107"/>
+      <c r="H96" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I96" s="107"/>
+      <c r="J96" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K96" s="107"/>
+      <c r="L96" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M96" s="107"/>
+      <c r="N96" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="102"/>
+      <c r="N97" s="101"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="105">
+        <v>45634</v>
+      </c>
+      <c r="D98" s="104">
+        <v>14</v>
+      </c>
+      <c r="F98" s="104">
+        <v>20</v>
+      </c>
+      <c r="H98" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J98" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L98" s="104">
+        <v>23</v>
+      </c>
+      <c r="N98" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="102"/>
+      <c r="N99" s="101"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="98"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="98"/>
+      <c r="G100" s="98"/>
+      <c r="H100" s="98"/>
+      <c r="I100" s="98"/>
+      <c r="J100" s="98"/>
+      <c r="K100" s="98"/>
+      <c r="L100" s="98"/>
+      <c r="M100" s="98"/>
+      <c r="N100" s="97"/>
+    </row>
+    <row r="101" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B101" s="96"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="95"/>
+      <c r="I101" s="95"/>
+      <c r="J101" s="95"/>
+      <c r="K101" s="95"/>
+      <c r="L101" s="95"/>
+      <c r="M101" s="95"/>
+      <c r="N101" s="94"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="107"/>
+      <c r="D102" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" s="107"/>
+      <c r="F102" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G102" s="107"/>
+      <c r="H102" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I102" s="107"/>
+      <c r="J102" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K102" s="107"/>
+      <c r="L102" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M102" s="107"/>
+      <c r="N102" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="102"/>
+      <c r="N103" s="101"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="105">
+        <v>45635</v>
+      </c>
+      <c r="D104" s="104">
+        <v>15</v>
+      </c>
+      <c r="F104" s="104">
+        <v>90</v>
+      </c>
+      <c r="H104" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J104" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L104" s="104">
+        <v>45</v>
+      </c>
+      <c r="N104" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="102"/>
+      <c r="N105" s="101"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="98"/>
+      <c r="I106" s="98"/>
+      <c r="J106" s="98"/>
+      <c r="K106" s="98"/>
+      <c r="L106" s="98"/>
+      <c r="M106" s="98"/>
+      <c r="N106" s="97"/>
+    </row>
+    <row r="107" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B107" s="96"/>
+      <c r="C107" s="95"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="95"/>
+      <c r="I107" s="95"/>
+      <c r="J107" s="95"/>
+      <c r="K107" s="95"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="95"/>
+      <c r="N107" s="94"/>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="107"/>
+      <c r="D108" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" s="107"/>
+      <c r="F108" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" s="107"/>
+      <c r="H108" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I108" s="107"/>
+      <c r="J108" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K108" s="107"/>
+      <c r="L108" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M108" s="107"/>
+      <c r="N108" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="102"/>
+      <c r="N109" s="101"/>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="105">
+        <v>45635</v>
+      </c>
+      <c r="D110" s="104">
+        <v>16</v>
+      </c>
+      <c r="F110" s="104">
+        <v>50</v>
+      </c>
+      <c r="H110" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J110" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L110" s="104">
+        <v>37</v>
+      </c>
+      <c r="N110" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="102"/>
+      <c r="N111" s="101"/>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="98"/>
+      <c r="I112" s="98"/>
+      <c r="J112" s="98"/>
+      <c r="K112" s="98"/>
+      <c r="L112" s="98"/>
+      <c r="M112" s="98"/>
+      <c r="N112" s="97"/>
+    </row>
+    <row r="113" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B113" s="96"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="95"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="95"/>
+      <c r="G113" s="95"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="95"/>
+      <c r="J113" s="95"/>
+      <c r="K113" s="95"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="95"/>
+      <c r="N113" s="94"/>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="107"/>
+      <c r="D114" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" s="107"/>
+      <c r="F114" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G114" s="107"/>
+      <c r="H114" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I114" s="107"/>
+      <c r="J114" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K114" s="107"/>
+      <c r="L114" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M114" s="107"/>
+      <c r="N114" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" s="102"/>
+      <c r="N115" s="101"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="105">
+        <v>45636</v>
+      </c>
+      <c r="D116" s="104">
+        <v>17</v>
+      </c>
+      <c r="F116" s="104">
+        <v>50</v>
+      </c>
+      <c r="H116" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J116" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L116" s="104">
+        <v>56</v>
+      </c>
+      <c r="N116" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" s="102"/>
+      <c r="N117" s="101"/>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="98"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="98"/>
+      <c r="J118" s="98"/>
+      <c r="K118" s="98"/>
+      <c r="L118" s="98"/>
+      <c r="M118" s="98"/>
+      <c r="N118" s="97"/>
+    </row>
+    <row r="119" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B119" s="96"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="95"/>
+      <c r="G119" s="95"/>
+      <c r="H119" s="95"/>
+      <c r="I119" s="95"/>
+      <c r="J119" s="95"/>
+      <c r="K119" s="95"/>
+      <c r="L119" s="95"/>
+      <c r="M119" s="95"/>
+      <c r="N119" s="94"/>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="107"/>
+      <c r="D120" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E120" s="107"/>
+      <c r="F120" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G120" s="107"/>
+      <c r="H120" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I120" s="107"/>
+      <c r="J120" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K120" s="107"/>
+      <c r="L120" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M120" s="107"/>
+      <c r="N120" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="102"/>
+      <c r="N121" s="101"/>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="105">
+        <v>45636</v>
+      </c>
+      <c r="D122" s="104">
+        <v>18</v>
+      </c>
+      <c r="F122" s="104">
+        <v>90</v>
+      </c>
+      <c r="H122" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J122" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L122" s="104">
+        <v>15</v>
+      </c>
+      <c r="N122" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" s="102"/>
+      <c r="N123" s="101"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="98"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="98"/>
+      <c r="K124" s="98"/>
+      <c r="L124" s="98"/>
+      <c r="M124" s="98"/>
+      <c r="N124" s="97"/>
+    </row>
+    <row r="125" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B125" s="96"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="95"/>
+      <c r="G125" s="95"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95"/>
+      <c r="K125" s="95"/>
+      <c r="L125" s="95"/>
+      <c r="M125" s="95"/>
+      <c r="N125" s="94"/>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="B126" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="107"/>
+      <c r="D126" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="107"/>
+      <c r="F126" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="107"/>
+      <c r="H126" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I126" s="107"/>
+      <c r="J126" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K126" s="107"/>
+      <c r="L126" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M126" s="107"/>
+      <c r="N126" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14">
+      <c r="B127" s="102"/>
+      <c r="N127" s="101"/>
+    </row>
+    <row r="128" spans="2:14">
+      <c r="B128" s="105">
+        <v>45637</v>
+      </c>
+      <c r="D128" s="104">
+        <v>19</v>
+      </c>
+      <c r="F128" s="104">
+        <v>100</v>
+      </c>
+      <c r="H128" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J128" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="L128" s="104">
+        <v>39</v>
+      </c>
+      <c r="N128" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129" s="102"/>
+      <c r="N129" s="101"/>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="98"/>
+      <c r="H130" s="98"/>
+      <c r="I130" s="98"/>
+      <c r="J130" s="98"/>
+      <c r="K130" s="98"/>
+      <c r="L130" s="98"/>
+      <c r="M130" s="98"/>
+      <c r="N130" s="97"/>
+    </row>
+    <row r="131" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B131" s="96"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="95"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="95"/>
+      <c r="G131" s="95"/>
+      <c r="H131" s="95"/>
+      <c r="I131" s="95"/>
+      <c r="J131" s="95"/>
+      <c r="K131" s="95"/>
+      <c r="L131" s="95"/>
+      <c r="M131" s="95"/>
+      <c r="N131" s="94"/>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="B132" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C132" s="107"/>
+      <c r="D132" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E132" s="107"/>
+      <c r="F132" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G132" s="107"/>
+      <c r="H132" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I132" s="107"/>
+      <c r="J132" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K132" s="107"/>
+      <c r="L132" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M132" s="107"/>
+      <c r="N132" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="B133" s="102"/>
+      <c r="N133" s="101"/>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134" s="105">
+        <v>45637</v>
+      </c>
+      <c r="D134" s="104">
+        <v>20</v>
+      </c>
+      <c r="F134" s="104">
+        <v>20</v>
+      </c>
+      <c r="H134" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J134" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L134" s="104">
+        <v>36</v>
+      </c>
+      <c r="N134" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14">
+      <c r="B135" s="102"/>
+      <c r="N135" s="101"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="98"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="98"/>
+      <c r="G136" s="98"/>
+      <c r="H136" s="98"/>
+      <c r="I136" s="98"/>
+      <c r="J136" s="98"/>
+      <c r="K136" s="98"/>
+      <c r="L136" s="98"/>
+      <c r="M136" s="98"/>
+      <c r="N136" s="97"/>
+    </row>
+    <row r="137" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B137" s="96"/>
+      <c r="C137" s="95"/>
+      <c r="D137" s="95"/>
+      <c r="E137" s="95"/>
+      <c r="F137" s="95"/>
+      <c r="G137" s="95"/>
+      <c r="H137" s="95"/>
+      <c r="I137" s="95"/>
+      <c r="J137" s="95"/>
+      <c r="K137" s="95"/>
+      <c r="L137" s="95"/>
+      <c r="M137" s="95"/>
+      <c r="N137" s="94"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C138" s="107"/>
+      <c r="D138" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E138" s="107"/>
+      <c r="F138" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G138" s="107"/>
+      <c r="H138" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I138" s="107"/>
+      <c r="J138" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K138" s="107"/>
+      <c r="L138" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M138" s="107"/>
+      <c r="N138" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="B139" s="102"/>
+      <c r="N139" s="101"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" s="105">
+        <v>45639</v>
+      </c>
+      <c r="D140" s="104">
+        <v>21</v>
+      </c>
+      <c r="F140" s="104">
+        <v>90</v>
+      </c>
+      <c r="H140" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J140" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L140" s="104">
+        <v>6</v>
+      </c>
+      <c r="N140" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="B141" s="102"/>
+      <c r="N141" s="101"/>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="B142" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="D142" s="98"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="98"/>
+      <c r="G142" s="98"/>
+      <c r="H142" s="98"/>
+      <c r="I142" s="98"/>
+      <c r="J142" s="98"/>
+      <c r="K142" s="98"/>
+      <c r="L142" s="98"/>
+      <c r="M142" s="98"/>
+      <c r="N142" s="97"/>
+    </row>
+    <row r="143" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B143" s="96"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="95"/>
+      <c r="E143" s="95"/>
+      <c r="F143" s="95"/>
+      <c r="G143" s="95"/>
+      <c r="H143" s="95"/>
+      <c r="I143" s="95"/>
+      <c r="J143" s="95"/>
+      <c r="K143" s="95"/>
+      <c r="L143" s="95"/>
+      <c r="M143" s="95"/>
+      <c r="N143" s="94"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="107"/>
+      <c r="D144" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E144" s="107"/>
+      <c r="F144" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G144" s="107"/>
+      <c r="H144" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I144" s="107"/>
+      <c r="J144" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K144" s="107"/>
+      <c r="L144" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M144" s="107"/>
+      <c r="N144" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145" s="102"/>
+      <c r="N145" s="101"/>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146" s="105">
+        <v>45639</v>
+      </c>
+      <c r="D146" s="104">
+        <v>22</v>
+      </c>
+      <c r="F146" s="104">
+        <v>60</v>
+      </c>
+      <c r="H146" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J146" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="L146" s="104">
+        <v>15</v>
+      </c>
+      <c r="N146" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147" s="102"/>
+      <c r="N147" s="101"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C148" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
+      <c r="F148" s="98"/>
+      <c r="G148" s="98"/>
+      <c r="H148" s="98"/>
+      <c r="I148" s="98"/>
+      <c r="J148" s="98"/>
+      <c r="K148" s="98"/>
+      <c r="L148" s="98"/>
+      <c r="M148" s="98"/>
+      <c r="N148" s="97"/>
+    </row>
+    <row r="149" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B149" s="96"/>
+      <c r="C149" s="95"/>
+      <c r="D149" s="95"/>
+      <c r="E149" s="95"/>
+      <c r="F149" s="95"/>
+      <c r="G149" s="95"/>
+      <c r="H149" s="95"/>
+      <c r="I149" s="95"/>
+      <c r="J149" s="95"/>
+      <c r="K149" s="95"/>
+      <c r="L149" s="95"/>
+      <c r="M149" s="95"/>
+      <c r="N149" s="94"/>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="B150" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C150" s="107"/>
+      <c r="D150" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E150" s="107"/>
+      <c r="F150" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G150" s="107"/>
+      <c r="H150" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I150" s="107"/>
+      <c r="J150" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K150" s="107"/>
+      <c r="L150" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M150" s="107"/>
+      <c r="N150" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="B151" s="102"/>
+      <c r="N151" s="101"/>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="B152" s="105">
+        <v>45639</v>
+      </c>
+      <c r="D152" s="104">
+        <v>23</v>
+      </c>
+      <c r="F152" s="104">
+        <v>20</v>
+      </c>
+      <c r="H152" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="J152" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L152" s="104">
+        <v>8</v>
+      </c>
+      <c r="N152" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14">
+      <c r="B153" s="102"/>
+      <c r="N153" s="101"/>
+    </row>
+    <row r="154" spans="2:14">
+      <c r="B154" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C154" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D154" s="98"/>
+      <c r="E154" s="98"/>
+      <c r="F154" s="98"/>
+      <c r="G154" s="98"/>
+      <c r="H154" s="98"/>
+      <c r="I154" s="98"/>
+      <c r="J154" s="98"/>
+      <c r="K154" s="98"/>
+      <c r="L154" s="98"/>
+      <c r="M154" s="98"/>
+      <c r="N154" s="97"/>
+    </row>
+    <row r="155" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B155" s="96"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="95"/>
+      <c r="E155" s="95"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="95"/>
+      <c r="H155" s="95"/>
+      <c r="I155" s="95"/>
+      <c r="J155" s="95"/>
+      <c r="K155" s="95"/>
+      <c r="L155" s="95"/>
+      <c r="M155" s="95"/>
+      <c r="N155" s="94"/>
+    </row>
+    <row r="156" spans="2:14">
+      <c r="B156" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C156" s="107"/>
+      <c r="D156" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E156" s="107"/>
+      <c r="F156" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G156" s="107"/>
+      <c r="H156" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I156" s="107"/>
+      <c r="J156" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K156" s="107"/>
+      <c r="L156" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M156" s="107"/>
+      <c r="N156" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14">
+      <c r="B157" s="102"/>
+      <c r="N157" s="101"/>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="B158" s="105">
+        <v>45640</v>
+      </c>
+      <c r="D158" s="104">
+        <v>24</v>
+      </c>
+      <c r="F158" s="104">
+        <v>90</v>
+      </c>
+      <c r="H158" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J158" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L158" s="104">
+        <v>12</v>
+      </c>
+      <c r="N158" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14">
+      <c r="B159" s="102"/>
+      <c r="N159" s="101"/>
+    </row>
+    <row r="160" spans="2:14">
+      <c r="B160" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="D160" s="98"/>
+      <c r="E160" s="98"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="98"/>
+      <c r="H160" s="98"/>
+      <c r="I160" s="98"/>
+      <c r="J160" s="98"/>
+      <c r="K160" s="98"/>
+      <c r="L160" s="98"/>
+      <c r="M160" s="98"/>
+      <c r="N160" s="97"/>
+    </row>
+    <row r="161" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B161" s="96"/>
+      <c r="C161" s="95"/>
+      <c r="D161" s="95"/>
+      <c r="E161" s="95"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="95"/>
+      <c r="H161" s="95"/>
+      <c r="I161" s="95"/>
+      <c r="J161" s="95"/>
+      <c r="K161" s="95"/>
+      <c r="L161" s="95"/>
+      <c r="M161" s="95"/>
+      <c r="N161" s="94"/>
+    </row>
+    <row r="162" spans="2:14">
+      <c r="B162" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C162" s="107"/>
+      <c r="D162" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="107"/>
+      <c r="F162" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="G162" s="107"/>
+      <c r="H162" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I162" s="107"/>
+      <c r="J162" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K162" s="107"/>
+      <c r="L162" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M162" s="107"/>
+      <c r="N162" s="106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14">
+      <c r="B163" s="102"/>
+      <c r="N163" s="101"/>
+    </row>
+    <row r="164" spans="2:14">
+      <c r="B164" s="105">
+        <v>45640</v>
+      </c>
+      <c r="D164" s="104">
+        <v>25</v>
+      </c>
+      <c r="F164" s="104">
+        <v>90</v>
+      </c>
+      <c r="H164" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="J164" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L164" s="104">
+        <v>20</v>
+      </c>
+      <c r="N164" s="103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14">
+      <c r="B165" s="102"/>
+      <c r="N165" s="101"/>
+    </row>
+    <row r="166" spans="2:14">
+      <c r="B166" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="D166" s="98"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="98"/>
+      <c r="G166" s="98"/>
+      <c r="H166" s="98"/>
+      <c r="I166" s="98"/>
+      <c r="J166" s="98"/>
+      <c r="K166" s="98"/>
+      <c r="L166" s="98"/>
+      <c r="M166" s="98"/>
+      <c r="N166" s="97"/>
+    </row>
+    <row r="167" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B167" s="96"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="95"/>
+      <c r="G167" s="95"/>
+      <c r="H167" s="95"/>
+      <c r="I167" s="95"/>
+      <c r="J167" s="95"/>
+      <c r="K167" s="95"/>
+      <c r="L167" s="95"/>
+      <c r="M167" s="95"/>
+      <c r="N167" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C148:N148"/>
+    <mergeCell ref="C154:N154"/>
+    <mergeCell ref="C160:N160"/>
+    <mergeCell ref="C166:N166"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C64:N64"/>
+    <mergeCell ref="C136:N136"/>
+    <mergeCell ref="C70:N70"/>
+    <mergeCell ref="C76:N76"/>
+    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="C100:N100"/>
+    <mergeCell ref="C106:N106"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C142:N142"/>
+    <mergeCell ref="C112:N112"/>
+    <mergeCell ref="C118:N118"/>
+    <mergeCell ref="C124:N124"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C82:N82"/>
+    <mergeCell ref="C88:N88"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:I9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42ABA0A-8F3D-4E26-80E9-2EDE30796DA6}">
+  <dimension ref="B1:N80"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="9.21875" style="93" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="93" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="93" customWidth="1"/>
+    <col min="5" max="6" width="9.21875" style="93" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="132" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="131" customWidth="1"/>
+    <col min="9" max="12" width="9.21875" style="126" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="131" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="126"/>
+    <col min="15" max="16384" width="9.21875" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="93" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="14.4" thickBot="1"/>
+    <row r="3" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B3" s="204" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="203" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="199" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="198">
+        <v>43234</v>
+      </c>
+      <c r="N3" s="197"/>
+    </row>
+    <row r="4" spans="2:14" ht="14.4" thickBot="1"/>
+    <row r="5" spans="2:14" ht="14.4">
+      <c r="B5" s="196" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="195" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="194" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="192" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="193"/>
+      <c r="G5" s="192" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="191"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="192" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="190"/>
+    </row>
+    <row r="6" spans="2:14" s="179" customFormat="1" ht="12.6" thickBot="1">
+      <c r="B6" s="189"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="186" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="185" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="184" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="181" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="183" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="182" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="182" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="182" t="s">
+        <v>302</v>
+      </c>
+      <c r="M6" s="181" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" s="180" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="161">
+        <v>1</v>
+      </c>
+      <c r="C7" s="160">
+        <v>45628</v>
+      </c>
+      <c r="D7" s="159" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="104">
+        <v>3</v>
+      </c>
+      <c r="F7" s="104">
+        <v>1</v>
+      </c>
+      <c r="G7" s="157">
+        <v>2</v>
+      </c>
+      <c r="H7" s="156">
+        <v>2</v>
+      </c>
+      <c r="I7" s="155">
+        <v>2</v>
+      </c>
+      <c r="J7" s="154">
+        <v>2</v>
+      </c>
+      <c r="K7" s="154">
+        <v>2</v>
+      </c>
+      <c r="L7" s="154">
+        <v>1</v>
+      </c>
+      <c r="M7" s="152">
+        <v>2</v>
+      </c>
+      <c r="N7" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B8" s="166"/>
+      <c r="C8" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="162"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="161">
+        <v>2</v>
+      </c>
+      <c r="C9" s="160">
+        <v>45628</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="104">
+        <v>2</v>
+      </c>
+      <c r="F9" s="104"/>
+      <c r="G9" s="157">
+        <v>1</v>
+      </c>
+      <c r="H9" s="156">
+        <v>1</v>
+      </c>
+      <c r="I9" s="155">
+        <v>1</v>
+      </c>
+      <c r="J9" s="154">
+        <v>1</v>
+      </c>
+      <c r="K9" s="154">
+        <v>1</v>
+      </c>
+      <c r="L9" s="153">
+        <v>1</v>
+      </c>
+      <c r="M9" s="152">
+        <v>1</v>
+      </c>
+      <c r="N9" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B10" s="166"/>
+      <c r="C10" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="147"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="162"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="161">
+        <v>3</v>
+      </c>
+      <c r="C11" s="160">
+        <v>45629</v>
+      </c>
+      <c r="D11" s="159" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="104">
+        <v>3</v>
+      </c>
+      <c r="F11" s="158">
+        <v>1</v>
+      </c>
+      <c r="G11" s="157">
+        <v>2</v>
+      </c>
+      <c r="H11" s="156">
+        <v>2</v>
+      </c>
+      <c r="I11" s="155">
+        <v>2</v>
+      </c>
+      <c r="J11" s="154">
+        <v>2</v>
+      </c>
+      <c r="K11" s="154">
+        <v>2</v>
+      </c>
+      <c r="L11" s="153">
+        <v>1</v>
+      </c>
+      <c r="M11" s="152">
+        <v>1</v>
+      </c>
+      <c r="N11" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B12" s="166"/>
+      <c r="C12" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="147"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="162"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="161">
+        <v>4</v>
+      </c>
+      <c r="C13" s="160">
+        <v>45629</v>
+      </c>
+      <c r="D13" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="104">
+        <v>4</v>
+      </c>
+      <c r="F13" s="158">
+        <v>1</v>
+      </c>
+      <c r="G13" s="157">
+        <v>3</v>
+      </c>
+      <c r="H13" s="156">
+        <v>3</v>
+      </c>
+      <c r="I13" s="155">
+        <v>3</v>
+      </c>
+      <c r="J13" s="154">
+        <v>3</v>
+      </c>
+      <c r="K13" s="154">
+        <v>3</v>
+      </c>
+      <c r="L13" s="153">
+        <v>1</v>
+      </c>
+      <c r="M13" s="152">
+        <v>3</v>
+      </c>
+      <c r="N13" s="151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B14" s="166"/>
+      <c r="C14" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="147"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="162"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="161">
+        <v>5</v>
+      </c>
+      <c r="C15" s="160">
+        <v>45630</v>
+      </c>
+      <c r="D15" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="104">
+        <v>3</v>
+      </c>
+      <c r="F15" s="158">
+        <v>1</v>
+      </c>
+      <c r="G15" s="157">
+        <v>2</v>
+      </c>
+      <c r="H15" s="156">
+        <v>2</v>
+      </c>
+      <c r="I15" s="155">
+        <v>2</v>
+      </c>
+      <c r="J15" s="154">
+        <v>5</v>
+      </c>
+      <c r="K15" s="154">
+        <v>5</v>
+      </c>
+      <c r="L15" s="153">
+        <v>1</v>
+      </c>
+      <c r="M15" s="152">
+        <v>3</v>
+      </c>
+      <c r="N15" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B16" s="166"/>
+      <c r="C16" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="164" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="147"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="162"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="161">
+        <v>6</v>
+      </c>
+      <c r="C17" s="160">
+        <v>45630</v>
+      </c>
+      <c r="D17" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="104">
+        <v>2</v>
+      </c>
+      <c r="F17" s="158">
+        <v>1</v>
+      </c>
+      <c r="G17" s="157">
+        <v>2</v>
+      </c>
+      <c r="H17" s="156">
+        <v>2</v>
+      </c>
+      <c r="I17" s="155">
+        <v>2</v>
+      </c>
+      <c r="J17" s="154">
+        <v>2</v>
+      </c>
+      <c r="K17" s="154">
+        <v>2</v>
+      </c>
+      <c r="L17" s="153">
+        <v>1</v>
+      </c>
+      <c r="M17" s="152">
+        <v>2</v>
+      </c>
+      <c r="N17" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B18" s="166"/>
+      <c r="C18" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="147"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="162"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="161">
+        <v>7</v>
+      </c>
+      <c r="C19" s="160">
+        <v>45631</v>
+      </c>
+      <c r="D19" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="104">
+        <v>5</v>
+      </c>
+      <c r="F19" s="158">
+        <v>1</v>
+      </c>
+      <c r="G19" s="157">
+        <v>4</v>
+      </c>
+      <c r="H19" s="156">
+        <v>4</v>
+      </c>
+      <c r="I19" s="155">
+        <v>4</v>
+      </c>
+      <c r="J19" s="154">
+        <v>9</v>
+      </c>
+      <c r="K19" s="154">
+        <v>9</v>
+      </c>
+      <c r="L19" s="153">
+        <v>1</v>
+      </c>
+      <c r="M19" s="152">
+        <v>4</v>
+      </c>
+      <c r="N19" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B20" s="166"/>
+      <c r="C20" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="164" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="147"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="162"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="161">
+        <v>8</v>
+      </c>
+      <c r="C21" s="160">
+        <v>45631</v>
+      </c>
+      <c r="D21" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="104">
+        <v>5</v>
+      </c>
+      <c r="F21" s="158">
+        <v>1</v>
+      </c>
+      <c r="G21" s="157">
+        <v>4</v>
+      </c>
+      <c r="H21" s="156">
+        <v>4</v>
+      </c>
+      <c r="I21" s="155">
+        <v>4</v>
+      </c>
+      <c r="J21" s="154">
+        <v>6</v>
+      </c>
+      <c r="K21" s="154">
+        <v>6</v>
+      </c>
+      <c r="L21" s="153">
+        <v>1</v>
+      </c>
+      <c r="M21" s="152">
+        <v>4</v>
+      </c>
+      <c r="N21" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B22" s="166"/>
+      <c r="C22" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="164" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="147"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="162"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="161">
+        <v>9</v>
+      </c>
+      <c r="C23" s="160">
+        <v>45632</v>
+      </c>
+      <c r="D23" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="104">
+        <v>2</v>
+      </c>
+      <c r="F23" s="158">
+        <v>1</v>
+      </c>
+      <c r="G23" s="157">
+        <v>1</v>
+      </c>
+      <c r="H23" s="156">
+        <v>1</v>
+      </c>
+      <c r="I23" s="155">
+        <v>1</v>
+      </c>
+      <c r="J23" s="154">
+        <v>1</v>
+      </c>
+      <c r="K23" s="154">
+        <v>1</v>
+      </c>
+      <c r="L23" s="153">
+        <v>1</v>
+      </c>
+      <c r="M23" s="152">
+        <v>1</v>
+      </c>
+      <c r="N23" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B24" s="166"/>
+      <c r="C24" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="164" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="147"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="162"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="161">
+        <v>10</v>
+      </c>
+      <c r="C25" s="160" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="104">
+        <v>7</v>
+      </c>
+      <c r="F25" s="158">
+        <v>1</v>
+      </c>
+      <c r="G25" s="157">
+        <v>6</v>
+      </c>
+      <c r="H25" s="156">
+        <v>6</v>
+      </c>
+      <c r="I25" s="155">
+        <v>6</v>
+      </c>
+      <c r="J25" s="154">
+        <v>15</v>
+      </c>
+      <c r="K25" s="154">
+        <v>15</v>
+      </c>
+      <c r="L25" s="153">
+        <v>1</v>
+      </c>
+      <c r="M25" s="152">
+        <v>6</v>
+      </c>
+      <c r="N25" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B26" s="166"/>
+      <c r="C26" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="164" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="147"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="162"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="161">
+        <v>11</v>
+      </c>
+      <c r="C27" s="160">
+        <v>45633</v>
+      </c>
+      <c r="D27" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="104">
+        <v>2</v>
+      </c>
+      <c r="F27" s="158">
+        <v>1</v>
+      </c>
+      <c r="G27" s="157">
+        <v>1</v>
+      </c>
+      <c r="H27" s="156">
+        <v>1</v>
+      </c>
+      <c r="I27" s="155">
+        <v>1</v>
+      </c>
+      <c r="J27" s="154">
+        <v>2</v>
+      </c>
+      <c r="K27" s="154">
+        <v>2</v>
+      </c>
+      <c r="L27" s="153">
+        <v>1</v>
+      </c>
+      <c r="M27" s="152">
+        <v>1</v>
+      </c>
+      <c r="N27" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B28" s="166"/>
+      <c r="C28" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="172" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="178"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="173"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="161">
+        <v>12</v>
+      </c>
+      <c r="C29" s="160">
+        <v>45633</v>
+      </c>
+      <c r="D29" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="104">
+        <v>4</v>
+      </c>
+      <c r="F29" s="158">
+        <v>1</v>
+      </c>
+      <c r="G29" s="157">
+        <v>3</v>
+      </c>
+      <c r="H29" s="156">
+        <v>3</v>
+      </c>
+      <c r="I29" s="155">
+        <v>3</v>
+      </c>
+      <c r="J29" s="154">
+        <v>9</v>
+      </c>
+      <c r="K29" s="154">
+        <v>9</v>
+      </c>
+      <c r="L29" s="153">
+        <v>1</v>
+      </c>
+      <c r="M29" s="152">
+        <v>4</v>
+      </c>
+      <c r="N29" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B30" s="166"/>
+      <c r="C30" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="147"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="162"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="161">
+        <v>13</v>
+      </c>
+      <c r="C31" s="160">
+        <v>45635</v>
+      </c>
+      <c r="D31" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="104">
+        <v>5</v>
+      </c>
+      <c r="F31" s="158">
+        <v>1</v>
+      </c>
+      <c r="G31" s="157">
+        <v>4</v>
+      </c>
+      <c r="H31" s="156">
+        <v>4</v>
+      </c>
+      <c r="I31" s="155">
+        <v>4</v>
+      </c>
+      <c r="J31" s="154">
+        <v>19</v>
+      </c>
+      <c r="K31" s="154">
+        <v>19</v>
+      </c>
+      <c r="L31" s="153">
+        <v>1</v>
+      </c>
+      <c r="M31" s="152">
+        <v>6</v>
+      </c>
+      <c r="N31" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B32" s="166"/>
+      <c r="C32" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="164" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="147"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="162"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="161">
+        <v>14</v>
+      </c>
+      <c r="C33" s="160">
+        <v>45635</v>
+      </c>
+      <c r="D33" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="104">
+        <v>2</v>
+      </c>
+      <c r="F33" s="158">
+        <v>1</v>
+      </c>
+      <c r="G33" s="157">
+        <v>1</v>
+      </c>
+      <c r="H33" s="156">
+        <v>1</v>
+      </c>
+      <c r="I33" s="155">
+        <v>1</v>
+      </c>
+      <c r="J33" s="154">
+        <v>3</v>
+      </c>
+      <c r="K33" s="154">
+        <v>3</v>
+      </c>
+      <c r="L33" s="153">
+        <v>1</v>
+      </c>
+      <c r="M33" s="152">
+        <v>1</v>
+      </c>
+      <c r="N33" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B34" s="166"/>
+      <c r="C34" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="164" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="146"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B35" s="161">
+        <v>15</v>
+      </c>
+      <c r="C35" s="160">
+        <v>45636</v>
+      </c>
+      <c r="D35" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="104">
+        <v>5</v>
+      </c>
+      <c r="F35" s="170">
+        <v>1</v>
+      </c>
+      <c r="G35" s="141">
+        <v>4</v>
+      </c>
+      <c r="H35" s="141">
+        <v>4</v>
+      </c>
+      <c r="I35" s="141">
+        <v>1</v>
+      </c>
+      <c r="J35" s="141">
+        <v>21</v>
+      </c>
+      <c r="K35" s="141">
+        <v>21</v>
+      </c>
+      <c r="L35" s="141">
+        <v>1</v>
+      </c>
+      <c r="M35" s="141">
+        <v>6</v>
+      </c>
+      <c r="N35" s="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B36" s="166"/>
+      <c r="C36" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="164" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="133"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="167"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="161">
+        <v>16</v>
+      </c>
+      <c r="C37" s="160">
+        <v>45636</v>
+      </c>
+      <c r="D37" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="104">
+        <v>3</v>
+      </c>
+      <c r="F37" s="158">
+        <v>1</v>
+      </c>
+      <c r="G37" s="157">
+        <v>2</v>
+      </c>
+      <c r="H37" s="156">
+        <v>2</v>
+      </c>
+      <c r="I37" s="155">
+        <v>2</v>
+      </c>
+      <c r="J37" s="154">
+        <v>21</v>
+      </c>
+      <c r="K37" s="154">
+        <v>21</v>
+      </c>
+      <c r="L37" s="153">
+        <v>1</v>
+      </c>
+      <c r="M37" s="152">
+        <v>6</v>
+      </c>
+      <c r="N37" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B38" s="166"/>
+      <c r="C38" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" s="148" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="146"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="161">
+        <v>17</v>
+      </c>
+      <c r="C39" s="160">
+        <v>45637</v>
+      </c>
+      <c r="D39" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="170">
+        <v>4</v>
+      </c>
+      <c r="F39" s="170">
+        <v>1</v>
+      </c>
+      <c r="G39" s="141">
+        <v>3</v>
+      </c>
+      <c r="H39" s="141">
+        <v>3</v>
+      </c>
+      <c r="I39" s="141">
+        <v>1</v>
+      </c>
+      <c r="J39" s="141">
+        <v>25</v>
+      </c>
+      <c r="K39" s="141">
+        <v>25</v>
+      </c>
+      <c r="L39" s="141">
+        <v>1</v>
+      </c>
+      <c r="M39" s="141">
+        <v>4</v>
+      </c>
+      <c r="N39" s="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B40" s="166"/>
+      <c r="C40" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="133"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="167"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="161">
+        <v>18</v>
+      </c>
+      <c r="C41" s="160">
+        <v>45637</v>
+      </c>
+      <c r="D41" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="104">
+        <v>5</v>
+      </c>
+      <c r="F41" s="158">
+        <v>1</v>
+      </c>
+      <c r="G41" s="157">
+        <v>4</v>
+      </c>
+      <c r="H41" s="156">
+        <v>4</v>
+      </c>
+      <c r="I41" s="155">
+        <v>4</v>
+      </c>
+      <c r="J41" s="154">
+        <v>25</v>
+      </c>
+      <c r="K41" s="154">
+        <v>25</v>
+      </c>
+      <c r="L41" s="153">
+        <v>1</v>
+      </c>
+      <c r="M41" s="152">
+        <v>6</v>
+      </c>
+      <c r="N41" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="14.4" thickBot="1">
+      <c r="B42" s="166"/>
+      <c r="C42" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="164" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="147"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="162"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="161">
+        <v>19</v>
+      </c>
+      <c r="C43" s="160">
+        <v>45638</v>
+      </c>
+      <c r="D43" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="104">
+        <v>3</v>
+      </c>
+      <c r="F43" s="158">
+        <v>1</v>
+      </c>
+      <c r="G43" s="157">
+        <v>2</v>
+      </c>
+      <c r="H43" s="156">
+        <v>2</v>
+      </c>
+      <c r="I43" s="155">
+        <v>2</v>
+      </c>
+      <c r="J43" s="154">
+        <v>18</v>
+      </c>
+      <c r="K43" s="154">
+        <v>18</v>
+      </c>
+      <c r="L43" s="153">
+        <v>1</v>
+      </c>
+      <c r="M43" s="152">
+        <v>7</v>
+      </c>
+      <c r="N43" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="150"/>
+      <c r="C44" s="149" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" s="148" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="146"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="140">
+        <v>20</v>
+      </c>
+      <c r="C45" s="145">
+        <v>45638</v>
+      </c>
+      <c r="D45" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="104">
+        <v>3</v>
+      </c>
+      <c r="F45" s="104">
+        <v>1</v>
+      </c>
+      <c r="G45" s="144">
+        <v>2</v>
+      </c>
+      <c r="H45" s="142">
+        <v>2</v>
+      </c>
+      <c r="I45" s="141">
+        <v>2</v>
+      </c>
+      <c r="J45" s="141">
+        <v>27</v>
+      </c>
+      <c r="K45" s="141">
+        <v>27</v>
+      </c>
+      <c r="L45" s="143">
+        <v>1</v>
+      </c>
+      <c r="M45" s="142">
+        <v>6</v>
+      </c>
+      <c r="N45" s="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="140"/>
+      <c r="C46" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="138" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="135"/>
+      <c r="C47" s="137"/>
+      <c r="L47" s="136"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="135"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="133"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="135"/>
+      <c r="C49" s="137"/>
+      <c r="L49" s="136"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="135"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="135"/>
+      <c r="C51" s="137"/>
+      <c r="L51" s="136"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="135"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="135"/>
+      <c r="C53" s="137"/>
+      <c r="L53" s="136"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="135"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="133"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="135"/>
+      <c r="C55" s="137"/>
+      <c r="L55" s="136"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="135"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="133"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="135"/>
+      <c r="C57" s="137"/>
+      <c r="L57" s="136"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="135"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="135"/>
+      <c r="C59" s="137"/>
+      <c r="L59" s="136"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="135"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="135"/>
+      <c r="C61" s="137"/>
+      <c r="L61" s="136"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="135"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="135"/>
+      <c r="C63" s="137"/>
+      <c r="L63" s="136"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="135"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
+      <c r="N64" s="133"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="135"/>
+      <c r="C65" s="137"/>
+      <c r="L65" s="136"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="135"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="133"/>
+      <c r="F66" s="133"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
+      <c r="N66" s="133"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="135"/>
+      <c r="C67" s="137"/>
+      <c r="L67" s="136"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="135"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="133"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
+      <c r="N68" s="133"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="135"/>
+      <c r="C69" s="137"/>
+      <c r="L69" s="136"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="135"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+      <c r="N70" s="133"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="135"/>
+      <c r="C71" s="137"/>
+      <c r="L71" s="136"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="135"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="133"/>
+      <c r="L72" s="133"/>
+      <c r="M72" s="133"/>
+      <c r="N72" s="133"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="135"/>
+      <c r="C73" s="137"/>
+      <c r="L73" s="136"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="135"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="133"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="133"/>
+      <c r="I74" s="133"/>
+      <c r="J74" s="133"/>
+      <c r="K74" s="133"/>
+      <c r="L74" s="133"/>
+      <c r="M74" s="133"/>
+      <c r="N74" s="133"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="135"/>
+      <c r="C75" s="137"/>
+      <c r="L75" s="136"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="135"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="133"/>
+      <c r="I76" s="133"/>
+      <c r="J76" s="133"/>
+      <c r="K76" s="133"/>
+      <c r="L76" s="133"/>
+      <c r="M76" s="133"/>
+      <c r="N76" s="133"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="135"/>
+      <c r="C77" s="137"/>
+      <c r="L77" s="136"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="135"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="133"/>
+      <c r="M78" s="133"/>
+      <c r="N78" s="133"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="135"/>
+      <c r="C79" s="137"/>
+      <c r="L79" s="136"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="135"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="133"/>
+      <c r="I80" s="133"/>
+      <c r="J80" s="133"/>
+      <c r="K80" s="133"/>
+      <c r="L80" s="133"/>
+      <c r="M80" s="133"/>
+      <c r="N80" s="133"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D40:N40"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D42:N42"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D46:N46"/>
+    <mergeCell ref="D48:N48"/>
+    <mergeCell ref="D50:N50"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="D54:N54"/>
+    <mergeCell ref="D56:N56"/>
+    <mergeCell ref="D58:N58"/>
+    <mergeCell ref="D60:N60"/>
+    <mergeCell ref="D64:N64"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D68:N68"/>
+    <mergeCell ref="D70:N70"/>
+    <mergeCell ref="D72:N72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D62:N62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D78:N78"/>
+    <mergeCell ref="D80:N80"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="D76:N76"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>